--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -940,7 +940,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1070,6 +1070,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1382,7 +1383,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -5083,17 +5084,17 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="47" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B110" s="46" t="s">
+      <c r="B110" s="47" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="46" t="s">
+      <c r="B111" s="47" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5101,10 +5102,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
   <si>
     <t>Southern Africa</t>

--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -526,7 +526,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".</t>
   </si>
   <si>
-    <t>Source: COMTRADE WITS Online Database (retrieved 27/10/2020), IMF World Economic Outlook Database October 2020.</t>
+    <t>Source: Author's calculations based on COMTRADE WITS Online Database (retrieved 27/10/2020), IMF World Economic Outlook Database October 2020.</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2021</t>

--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -487,7 +487,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab21.xlsx
+++ b/AfDD_2021_Annex_Table_Tab21.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markley_S\Downloads\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -626,9 +626,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -935,12 +936,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1071,9 +1073,44 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 3" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1358,13 +1395,17 @@
   </sheetPr>
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="12.453125" style="44" customWidth="1"/>
+    <col min="3" max="8" width="12.453125" style="44" customWidth="1"/>
+    <col min="9" max="10" width="12.453125" style="59" customWidth="1"/>
+    <col min="11" max="12" width="12.453125" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1378,8 +1419,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
@@ -1408,10 +1449,10 @@
       <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="49" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -1446,11 +1487,11 @@
       <c r="H3" s="13">
         <v>5.5890640193733203</v>
       </c>
-      <c r="I3" s="12">
-        <v>2.3199526960000001</v>
-      </c>
-      <c r="J3" s="12">
-        <v>98.252909078000101</v>
+      <c r="I3" s="50">
+        <v>2319.9526960000003</v>
+      </c>
+      <c r="J3" s="50">
+        <v>98252.909078000099</v>
       </c>
       <c r="K3" s="12">
         <v>2.3067382742008702</v>
@@ -1484,11 +1525,11 @@
       <c r="H4" s="13">
         <v>6.0262901165334899</v>
       </c>
-      <c r="I4" s="12">
-        <v>3.2603916370000001</v>
-      </c>
-      <c r="J4" s="12">
-        <v>16.465202083000001</v>
+      <c r="I4" s="50">
+        <v>3260.3916370000002</v>
+      </c>
+      <c r="J4" s="50">
+        <v>16465.202083</v>
       </c>
       <c r="K4" s="12">
         <v>16.528737655659299</v>
@@ -1522,11 +1563,11 @@
       <c r="H5" s="17">
         <v>0.65854947472662995</v>
       </c>
-      <c r="I5" s="16">
-        <v>2.1924573719999998</v>
-      </c>
-      <c r="J5" s="16">
-        <v>2.8857392979999998</v>
+      <c r="I5" s="51">
+        <v>2192.4573719999999</v>
+      </c>
+      <c r="J5" s="51">
+        <v>2885.739298</v>
       </c>
       <c r="K5" s="16">
         <v>43.173935837345198</v>
@@ -1560,10 +1601,10 @@
       <c r="H6" s="17">
         <v>25.106609854727999</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="16" t="s">
@@ -1598,11 +1639,11 @@
       <c r="H7" s="17">
         <v>4.1633825746316004</v>
       </c>
-      <c r="I7" s="16">
-        <v>0.787198273</v>
-      </c>
-      <c r="J7" s="16">
-        <v>4.2671527039999999</v>
+      <c r="I7" s="51">
+        <v>787.19827299999997</v>
+      </c>
+      <c r="J7" s="51">
+        <v>4267.1527040000001</v>
       </c>
       <c r="K7" s="16">
         <v>15.5746657994701</v>
@@ -1636,11 +1677,11 @@
       <c r="H8" s="17">
         <v>1.2582990387695501</v>
       </c>
-      <c r="I8" s="16">
-        <v>2.4007499710000002</v>
-      </c>
-      <c r="J8" s="16">
-        <v>15.54087597</v>
+      <c r="I8" s="51">
+        <v>2400.7499710000002</v>
+      </c>
+      <c r="J8" s="51">
+        <v>15540.875970000001</v>
       </c>
       <c r="K8" s="16">
         <v>13.380894122387399</v>
@@ -1674,11 +1715,11 @@
       <c r="H9" s="17">
         <v>1.7065496776866</v>
       </c>
-      <c r="I9" s="16">
-        <v>5.183063046</v>
-      </c>
-      <c r="J9" s="16">
-        <v>15.991595498000001</v>
+      <c r="I9" s="51">
+        <v>5183.0630460000002</v>
+      </c>
+      <c r="J9" s="51">
+        <v>15991.595498000001</v>
       </c>
       <c r="K9" s="16">
         <v>24.477670018762399</v>
@@ -1712,11 +1753,11 @@
       <c r="H10" s="17">
         <v>5.6885324790798499</v>
       </c>
-      <c r="I10" s="16">
-        <v>27.236910994999999</v>
-      </c>
-      <c r="J10" s="16">
-        <v>249.424503405</v>
+      <c r="I10" s="51">
+        <v>27236.910994999998</v>
+      </c>
+      <c r="J10" s="51">
+        <v>249424.503405</v>
       </c>
       <c r="K10" s="16">
         <v>9.8448535203469199</v>
@@ -1750,11 +1791,11 @@
       <c r="H11" s="13">
         <v>2.0251545177842201</v>
       </c>
-      <c r="I11" s="12">
-        <v>5.5199704870000001</v>
-      </c>
-      <c r="J11" s="12">
-        <v>27.148091159</v>
+      <c r="I11" s="50">
+        <v>5519.9704870000005</v>
+      </c>
+      <c r="J11" s="50">
+        <v>27148.091159</v>
       </c>
       <c r="K11" s="12">
         <v>16.897147271288699</v>
@@ -1788,11 +1829,11 @@
       <c r="H12" s="17">
         <v>2.0212752373437999</v>
       </c>
-      <c r="I12" s="16">
-        <v>4.9357996829999999</v>
-      </c>
-      <c r="J12" s="16">
-        <v>9.9875141970000101</v>
+      <c r="I12" s="51">
+        <v>4935.7996830000002</v>
+      </c>
+      <c r="J12" s="51">
+        <v>9987.5141970000095</v>
       </c>
       <c r="K12" s="16">
         <v>33.0744211553098</v>
@@ -1826,11 +1867,11 @@
       <c r="H13" s="23">
         <v>5.2831592002737002</v>
       </c>
-      <c r="I13" s="22">
-        <v>53.836494160000001</v>
-      </c>
-      <c r="J13" s="22">
-        <v>439.96358339199998</v>
+      <c r="I13" s="52">
+        <v>53836.494160000002</v>
+      </c>
+      <c r="J13" s="52">
+        <v>439963.583392</v>
       </c>
       <c r="K13" s="22">
         <v>10.9024879920823</v>
@@ -1864,11 +1905,11 @@
       <c r="H14" s="17">
         <v>5.28003559328595</v>
       </c>
-      <c r="I14" s="16">
-        <v>0.16118707700000001</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0.99688571599999998</v>
+      <c r="I14" s="51">
+        <v>161.18707700000002</v>
+      </c>
+      <c r="J14" s="51">
+        <v>996.885716</v>
       </c>
       <c r="K14" s="16">
         <v>13.9185617669545</v>
@@ -1902,10 +1943,10 @@
       <c r="H15" s="17">
         <v>3.2127129441880702</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="16" t="s">
+      <c r="I15" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="16" t="s">
@@ -1940,11 +1981,11 @@
       <c r="H16" s="17">
         <v>2.1120992138872099</v>
       </c>
-      <c r="I16" s="16">
-        <v>2.4802536E-2</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0.34926842200000002</v>
+      <c r="I16" s="51">
+        <v>24.802536</v>
+      </c>
+      <c r="J16" s="51">
+        <v>349.26842200000004</v>
       </c>
       <c r="K16" s="16">
         <v>6.6304361430806402</v>
@@ -1978,10 +2019,10 @@
       <c r="H17" s="13">
         <v>21.943050873357301</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="I17" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="12" t="s">
@@ -2016,11 +2057,11 @@
       <c r="H18" s="13">
         <v>3.5396387386781298</v>
       </c>
-      <c r="I18" s="12">
-        <v>0.95036888200000003</v>
-      </c>
-      <c r="J18" s="12">
-        <v>24.345701336000001</v>
+      <c r="I18" s="50">
+        <v>950.36888199999999</v>
+      </c>
+      <c r="J18" s="50">
+        <v>24345.701336000002</v>
       </c>
       <c r="K18" s="12">
         <v>3.7569823051951499</v>
@@ -2054,10 +2095,10 @@
       <c r="H19" s="13">
         <v>0.41824110731731001</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="12" t="s">
+      <c r="I19" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="12" t="s">
@@ -2092,10 +2133,10 @@
       <c r="H20" s="13">
         <v>7.1914127244977797</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="12" t="s">
+      <c r="I20" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="12" t="s">
@@ -2130,10 +2171,10 @@
       <c r="H21" s="13">
         <v>3.88334870702211</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="12" t="s">
+      <c r="I21" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="12" t="s">
@@ -2168,11 +2209,11 @@
       <c r="H22" s="17">
         <v>3.11224921782813</v>
       </c>
-      <c r="I22" s="16">
-        <v>5.8158070000000001E-3</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0.155365167</v>
+      <c r="I22" s="51">
+        <v>5.8158070000000004</v>
+      </c>
+      <c r="J22" s="51">
+        <v>155.36516699999999</v>
       </c>
       <c r="K22" s="16">
         <v>3.6082465911888599</v>
@@ -2206,11 +2247,11 @@
       <c r="H23" s="23">
         <v>4.2378659955111004</v>
       </c>
-      <c r="I23" s="22">
-        <v>1.1421743019999999</v>
-      </c>
-      <c r="J23" s="22">
-        <v>25.847220641</v>
+      <c r="I23" s="52">
+        <v>1142.1743019999999</v>
+      </c>
+      <c r="J23" s="52">
+        <v>25847.220641</v>
       </c>
       <c r="K23" s="22">
         <v>4.2319374124992599</v>
@@ -2244,11 +2285,11 @@
       <c r="H24" s="17">
         <v>2.0815824415569102</v>
       </c>
-      <c r="I24" s="16">
-        <v>1.3440835999999999E-2</v>
-      </c>
-      <c r="J24" s="16">
-        <v>0.190331944</v>
+      <c r="I24" s="51">
+        <v>13.440835999999999</v>
+      </c>
+      <c r="J24" s="51">
+        <v>190.33194399999999</v>
       </c>
       <c r="K24" s="16">
         <v>6.5959918689826997</v>
@@ -2282,10 +2323,10 @@
       <c r="H25" s="17">
         <v>22.6116889642019</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="16" t="s">
+      <c r="I25" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="16" t="s">
@@ -2320,10 +2361,10 @@
       <c r="H26" s="17">
         <v>5.6001937152540003E-2</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="16" t="s">
+      <c r="I26" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="16" t="s">
@@ -2358,11 +2399,11 @@
       <c r="H27" s="17">
         <v>13.3824960708285</v>
       </c>
-      <c r="I27" s="16">
-        <v>0.77176669799999997</v>
-      </c>
-      <c r="J27" s="16">
-        <v>21.743595276000001</v>
+      <c r="I27" s="51">
+        <v>771.76669800000002</v>
+      </c>
+      <c r="J27" s="51">
+        <v>21743.595276</v>
       </c>
       <c r="K27" s="16">
         <v>3.4277339129222599</v>
@@ -2396,11 +2437,11 @@
       <c r="H28" s="17">
         <v>8.5478831589968092</v>
       </c>
-      <c r="I28" s="16">
-        <v>2.3919114650000002</v>
-      </c>
-      <c r="J28" s="16">
-        <v>23.053967903</v>
+      <c r="I28" s="51">
+        <v>2391.9114650000001</v>
+      </c>
+      <c r="J28" s="51">
+        <v>23053.967903000001</v>
       </c>
       <c r="K28" s="16">
         <v>9.3999953014317903</v>
@@ -2434,11 +2475,11 @@
       <c r="H29" s="17">
         <v>16.686360274830498</v>
       </c>
-      <c r="I29" s="16">
-        <v>0.48925545100000001</v>
-      </c>
-      <c r="J29" s="16">
-        <v>7.0659629319999997</v>
+      <c r="I29" s="51">
+        <v>489.25545099999999</v>
+      </c>
+      <c r="J29" s="51">
+        <v>7065.9629319999995</v>
       </c>
       <c r="K29" s="16">
         <v>6.4757287770909997</v>
@@ -2472,11 +2513,11 @@
       <c r="H30" s="17">
         <v>9.0124829058303106</v>
       </c>
-      <c r="I30" s="16">
-        <v>0.49767468399999998</v>
-      </c>
-      <c r="J30" s="16">
-        <v>6.38107837300001</v>
+      <c r="I30" s="51">
+        <v>497.67468399999996</v>
+      </c>
+      <c r="J30" s="51">
+        <v>6381.0783730000103</v>
       </c>
       <c r="K30" s="16">
         <v>7.2349549384325202</v>
@@ -2510,11 +2551,11 @@
       <c r="H31" s="17">
         <v>6.2430508804182301</v>
       </c>
-      <c r="I31" s="16">
-        <v>0.65931972400000005</v>
-      </c>
-      <c r="J31" s="16">
-        <v>4.2418250909999999</v>
+      <c r="I31" s="51">
+        <v>659.31972400000006</v>
+      </c>
+      <c r="J31" s="51">
+        <v>4241.8250909999997</v>
       </c>
       <c r="K31" s="16">
         <v>13.4523616193128</v>
@@ -2548,11 +2589,11 @@
       <c r="H32" s="17">
         <v>0.81636111901352004</v>
       </c>
-      <c r="I32" s="16">
-        <v>7.3207425000000007E-2</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0.86867705200000001</v>
+      <c r="I32" s="51">
+        <v>73.207425000000001</v>
+      </c>
+      <c r="J32" s="51">
+        <v>868.677052</v>
       </c>
       <c r="K32" s="16">
         <v>7.7724420337803197</v>
@@ -2586,10 +2627,10 @@
       <c r="H33" s="17">
         <v>0.25841039213167999</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="16" t="s">
+      <c r="I33" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K33" s="16" t="s">
@@ -2624,10 +2665,10 @@
       <c r="H34" s="13">
         <v>1.2248761800099999E-3</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="12" t="s">
+      <c r="I34" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="12" t="s">
@@ -2662,11 +2703,11 @@
       <c r="H35" s="17">
         <v>0.36640437217848998</v>
       </c>
-      <c r="I35" s="16">
-        <v>1.1207595180000001</v>
-      </c>
-      <c r="J35" s="16">
-        <v>19.235697923</v>
+      <c r="I35" s="51">
+        <v>1120.7595180000001</v>
+      </c>
+      <c r="J35" s="51">
+        <v>19235.697923</v>
       </c>
       <c r="K35" s="16">
         <v>5.5056707251168104</v>
@@ -2700,11 +2741,11 @@
       <c r="H36" s="17">
         <v>1.77097684809957</v>
       </c>
-      <c r="I36" s="16">
-        <v>1.9320982289999999</v>
-      </c>
-      <c r="J36" s="16">
-        <v>13.699610404</v>
+      <c r="I36" s="51">
+        <v>1932.0982289999999</v>
+      </c>
+      <c r="J36" s="51">
+        <v>13699.610403999999</v>
       </c>
       <c r="K36" s="16">
         <v>12.360121816249601</v>
@@ -2738,11 +2779,11 @@
       <c r="H37" s="17">
         <v>1.94987251009096</v>
       </c>
-      <c r="I37" s="16">
-        <v>1.9453959590000001</v>
-      </c>
-      <c r="J37" s="16">
-        <v>10.578636458</v>
+      <c r="I37" s="51">
+        <v>1945.3959590000002</v>
+      </c>
+      <c r="J37" s="51">
+        <v>10578.636458000001</v>
       </c>
       <c r="K37" s="16">
         <v>15.533303445935999</v>
@@ -2776,11 +2817,11 @@
       <c r="H38" s="23">
         <v>6.8005099121155297</v>
       </c>
-      <c r="I38" s="22">
-        <v>9.8948299889999998</v>
-      </c>
-      <c r="J38" s="22">
-        <v>107.059383356</v>
+      <c r="I38" s="52">
+        <v>9894.8299889999998</v>
+      </c>
+      <c r="J38" s="52">
+        <v>107059.38335599999</v>
       </c>
       <c r="K38" s="22">
         <v>8.4604305445683394</v>
@@ -2814,10 +2855,10 @@
       <c r="H39" s="13">
         <v>7.0841688359548503</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="12" t="s">
+      <c r="I39" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K39" s="12" t="s">
@@ -2852,11 +2893,11 @@
       <c r="H40" s="17">
         <v>6.1498311910504704</v>
       </c>
-      <c r="I40" s="16">
-        <v>4.1885377100000003</v>
-      </c>
-      <c r="J40" s="16">
-        <v>160.31325547200001</v>
+      <c r="I40" s="51">
+        <v>4188.5377100000005</v>
+      </c>
+      <c r="J40" s="51">
+        <v>160313.25547200002</v>
       </c>
       <c r="K40" s="16">
         <v>2.5461957763377798</v>
@@ -2890,11 +2931,11 @@
       <c r="H41" s="13">
         <v>2.8531551215219801</v>
       </c>
-      <c r="I41" s="12">
-        <v>0.82181373199999996</v>
-      </c>
-      <c r="J41" s="12">
-        <v>68.260099174000004</v>
+      <c r="I41" s="50">
+        <v>821.81373199999996</v>
+      </c>
+      <c r="J41" s="50">
+        <v>68260.099174000003</v>
       </c>
       <c r="K41" s="12">
         <v>1.1896221419320601</v>
@@ -2928,11 +2969,11 @@
       <c r="H42" s="13">
         <v>0.3982443457557</v>
       </c>
-      <c r="I42" s="12">
-        <v>0.12820931799999999</v>
-      </c>
-      <c r="J42" s="12">
-        <v>5.880219598</v>
+      <c r="I42" s="50">
+        <v>128.209318</v>
+      </c>
+      <c r="J42" s="50">
+        <v>5880.2195979999997</v>
       </c>
       <c r="K42" s="12">
         <v>2.13382432899536</v>
@@ -2966,11 +3007,11 @@
       <c r="H43" s="17">
         <v>3.2162878985113501</v>
       </c>
-      <c r="I43" s="16">
-        <v>2.8701414089999999</v>
-      </c>
-      <c r="J43" s="16">
-        <v>105.839982089</v>
+      <c r="I43" s="51">
+        <v>2870.1414089999998</v>
+      </c>
+      <c r="J43" s="51">
+        <v>105839.982089</v>
       </c>
       <c r="K43" s="16">
         <v>2.6401785929833901</v>
@@ -3004,11 +3045,11 @@
       <c r="H44" s="17">
         <v>2.3693255020859398</v>
       </c>
-      <c r="I44" s="16">
-        <v>2.27656978</v>
-      </c>
-      <c r="J44" s="16">
-        <v>57.357043828999998</v>
+      <c r="I44" s="51">
+        <v>2276.5697799999998</v>
+      </c>
+      <c r="J44" s="51">
+        <v>57357.043829000002</v>
       </c>
       <c r="K44" s="16">
         <v>3.81759488017412</v>
@@ -3042,11 +3083,11 @@
       <c r="H45" s="23">
         <v>4.5875922002405902</v>
       </c>
-      <c r="I45" s="22">
-        <v>10.285271949</v>
-      </c>
-      <c r="J45" s="22">
-        <v>397.65060016199999</v>
+      <c r="I45" s="52">
+        <v>10285.271949</v>
+      </c>
+      <c r="J45" s="52">
+        <v>397650.60016199999</v>
       </c>
       <c r="K45" s="22">
         <v>2.5212962752639099</v>
@@ -3080,11 +3121,11 @@
       <c r="H46" s="17">
         <v>1.84511034115756</v>
       </c>
-      <c r="I46" s="16">
-        <v>0.60563977700000005</v>
-      </c>
-      <c r="J46" s="16">
-        <v>3.666055874</v>
+      <c r="I46" s="51">
+        <v>605.63977700000009</v>
+      </c>
+      <c r="J46" s="51">
+        <v>3666.0558740000001</v>
       </c>
       <c r="K46" s="16">
         <v>14.1779711496586</v>
@@ -3118,11 +3159,11 @@
       <c r="H47" s="17">
         <v>0.16971132608125999</v>
       </c>
-      <c r="I47" s="16">
-        <v>0.94258678399999996</v>
-      </c>
-      <c r="J47" s="16">
-        <v>10.040354710000001</v>
+      <c r="I47" s="51">
+        <v>942.58678399999997</v>
+      </c>
+      <c r="J47" s="51">
+        <v>10040.354710000001</v>
       </c>
       <c r="K47" s="16">
         <v>8.5822799339770306</v>
@@ -3156,11 +3197,11 @@
       <c r="H48" s="17">
         <v>1.5997044563479601</v>
       </c>
-      <c r="I48" s="16">
-        <v>9.2138210000000005E-3</v>
-      </c>
-      <c r="J48" s="16">
-        <v>0.80144915900000002</v>
+      <c r="I48" s="51">
+        <v>9.2138210000000011</v>
+      </c>
+      <c r="J48" s="51">
+        <v>801.44915900000001</v>
       </c>
       <c r="K48" s="16">
         <v>1.1365784829597101</v>
@@ -3194,11 +3235,11 @@
       <c r="H49" s="17">
         <v>7.47114728593347</v>
       </c>
-      <c r="I49" s="16">
-        <v>3.1771540690000002</v>
-      </c>
-      <c r="J49" s="16">
-        <v>29.111631524</v>
+      <c r="I49" s="51">
+        <v>3177.1540690000002</v>
+      </c>
+      <c r="J49" s="51">
+        <v>29111.631524</v>
       </c>
       <c r="K49" s="16">
         <v>9.8398066407576206</v>
@@ -3232,11 +3273,11 @@
       <c r="H50" s="17">
         <v>0.43273600447263999</v>
       </c>
-      <c r="I50" s="16">
-        <v>2.3705395000000001E-2</v>
-      </c>
-      <c r="J50" s="16">
-        <v>0.44450833699999998</v>
+      <c r="I50" s="51">
+        <v>23.705394999999999</v>
+      </c>
+      <c r="J50" s="51">
+        <v>444.50833699999998</v>
       </c>
       <c r="K50" s="16">
         <v>5.0629431346964404</v>
@@ -3270,11 +3311,11 @@
       <c r="H51" s="13">
         <v>3.0573424846217598</v>
       </c>
-      <c r="I51" s="12">
-        <v>2.9576345100000001</v>
-      </c>
-      <c r="J51" s="12">
-        <v>44.703318451999998</v>
+      <c r="I51" s="50">
+        <v>2957.6345100000003</v>
+      </c>
+      <c r="J51" s="50">
+        <v>44703.318452</v>
       </c>
       <c r="K51" s="12">
         <v>6.2055714923663299</v>
@@ -3308,10 +3349,10 @@
       <c r="H52" s="17">
         <v>9.9072303538400006E-2</v>
       </c>
-      <c r="I52" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="16" t="s">
+      <c r="I52" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K52" s="16" t="s">
@@ -3346,10 +3387,10 @@
       <c r="H53" s="17">
         <v>0.11353275278236</v>
       </c>
-      <c r="I53" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="16" t="s">
+      <c r="I53" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K53" s="16" t="s">
@@ -3384,10 +3425,10 @@
       <c r="H54" s="17">
         <v>3.1313577078639199</v>
       </c>
-      <c r="I54" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="16" t="s">
+      <c r="I54" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="16" t="s">
@@ -3422,10 +3463,10 @@
       <c r="H55" s="17">
         <v>0.16604842481082999</v>
       </c>
-      <c r="I55" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" s="16" t="s">
+      <c r="I55" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K55" s="16" t="s">
@@ -3460,11 +3501,11 @@
       <c r="H56" s="17">
         <v>4.9038334970264197</v>
       </c>
-      <c r="I56" s="16">
-        <v>0.38476466300000001</v>
-      </c>
-      <c r="J56" s="16">
-        <v>5.2152147229999901</v>
+      <c r="I56" s="51">
+        <v>384.76466299999998</v>
+      </c>
+      <c r="J56" s="51">
+        <v>5215.21472299999</v>
       </c>
       <c r="K56" s="16">
         <v>6.8708228455611096</v>
@@ -3498,11 +3539,11 @@
       <c r="H57" s="13">
         <v>6.3026047816337298</v>
       </c>
-      <c r="I57" s="12">
-        <v>8.8538050199999994</v>
-      </c>
-      <c r="J57" s="12">
-        <v>164.75068615800001</v>
+      <c r="I57" s="50">
+        <v>8853.8050199999998</v>
+      </c>
+      <c r="J57" s="50">
+        <v>164750.686158</v>
       </c>
       <c r="K57" s="12">
         <v>5.0999861581472699</v>
@@ -3536,11 +3577,11 @@
       <c r="H58" s="17">
         <v>3.4896354182542102</v>
       </c>
-      <c r="I58" s="16">
-        <v>1.6304871759999999</v>
-      </c>
-      <c r="J58" s="16">
-        <v>11.629994930000001</v>
+      <c r="I58" s="51">
+        <v>1630.4871759999999</v>
+      </c>
+      <c r="J58" s="51">
+        <v>11629.994930000001</v>
       </c>
       <c r="K58" s="16">
         <v>12.2958363275665</v>
@@ -3574,11 +3615,11 @@
       <c r="H59" s="17">
         <v>5.6525644000698501</v>
       </c>
-      <c r="I59" s="16">
-        <v>0.128120281</v>
-      </c>
-      <c r="J59" s="16">
-        <v>1.284548346</v>
+      <c r="I59" s="51">
+        <v>128.12028100000001</v>
+      </c>
+      <c r="J59" s="51">
+        <v>1284.548346</v>
       </c>
       <c r="K59" s="16">
         <v>9.0693796514814196</v>
@@ -3612,11 +3653,11 @@
       <c r="H60" s="13">
         <v>0.43532902107062998</v>
       </c>
-      <c r="I60" s="12">
-        <v>0.764061447</v>
-      </c>
-      <c r="J60" s="12">
-        <v>3.0670818660000001</v>
+      <c r="I60" s="50">
+        <v>764.06144700000004</v>
+      </c>
+      <c r="J60" s="50">
+        <v>3067.081866</v>
       </c>
       <c r="K60" s="12">
         <v>19.943431622809701</v>
@@ -3650,11 +3691,11 @@
       <c r="H61" s="23">
         <v>5.1989548438019701</v>
       </c>
-      <c r="I61" s="22">
-        <v>19.477172942999999</v>
-      </c>
-      <c r="J61" s="22">
-        <v>274.71484407899999</v>
+      <c r="I61" s="52">
+        <v>19477.172942999998</v>
+      </c>
+      <c r="J61" s="52">
+        <v>274714.844079</v>
       </c>
       <c r="K61" s="22">
         <v>6.6205647386901996</v>
@@ -3688,11 +3729,11 @@
       <c r="H62" s="27">
         <v>5.0439535222735099</v>
       </c>
-      <c r="I62" s="26">
-        <v>94.635943342999994</v>
-      </c>
-      <c r="J62" s="26">
-        <v>1245.2356316299999</v>
+      <c r="I62" s="53">
+        <v>94635.943342999992</v>
+      </c>
+      <c r="J62" s="53">
+        <v>1245235.63163</v>
       </c>
       <c r="K62" s="26">
         <v>7.0630607522894104</v>
@@ -3726,11 +3767,11 @@
       <c r="H63" s="27">
         <v>12.6503165607251</v>
       </c>
-      <c r="I63" s="26">
-        <v>16403.355079718</v>
-      </c>
-      <c r="J63" s="26">
-        <v>38688.786760994</v>
+      <c r="I63" s="53">
+        <v>16403355.079717999</v>
+      </c>
+      <c r="J63" s="53">
+        <v>38688786.760994002</v>
       </c>
       <c r="K63" s="26">
         <v>29.774400725143401</v>
@@ -3764,11 +3805,11 @@
       <c r="H64" s="31">
         <v>37.545188154443302</v>
       </c>
-      <c r="I64" s="30">
-        <v>614.50400793100005</v>
-      </c>
-      <c r="J64" s="30">
-        <v>2487.8011709100001</v>
+      <c r="I64" s="54">
+        <v>614504.00793100009</v>
+      </c>
+      <c r="J64" s="54">
+        <v>2487801.1709100003</v>
       </c>
       <c r="K64" s="30">
         <v>19.807980598497199</v>
@@ -3802,11 +3843,11 @@
       <c r="H65" s="31">
         <v>15.2779342408194</v>
       </c>
-      <c r="I65" s="33">
-        <v>4770.6566689900001</v>
-      </c>
-      <c r="J65" s="33">
-        <v>10242.232355292999</v>
+      <c r="I65" s="55">
+        <v>4770656.6689900002</v>
+      </c>
+      <c r="J65" s="55">
+        <v>10242232.355293</v>
       </c>
       <c r="K65" s="33">
         <v>31.777072762434798</v>
@@ -3840,11 +3881,11 @@
       <c r="H66" s="31">
         <v>12.381376517042799</v>
       </c>
-      <c r="I66" s="30">
-        <v>16497.991023061</v>
-      </c>
-      <c r="J66" s="30">
-        <v>39934.022392624</v>
+      <c r="I66" s="54">
+        <v>16497991.023061</v>
+      </c>
+      <c r="J66" s="54">
+        <v>39934022.392623998</v>
       </c>
       <c r="K66" s="30">
         <v>29.235162852572401</v>
@@ -3878,11 +3919,11 @@
       <c r="H67" s="36">
         <v>4.21794104443679</v>
       </c>
-      <c r="I67" s="35">
-        <v>28.846265874</v>
-      </c>
-      <c r="J67" s="35">
-        <v>424.575554501</v>
+      <c r="I67" s="56">
+        <v>28846.265874000001</v>
+      </c>
+      <c r="J67" s="56">
+        <v>424575.55450099998</v>
       </c>
       <c r="K67" s="35">
         <v>6.3619050909686798</v>
@@ -3916,11 +3957,11 @@
       <c r="H68" s="31">
         <v>4.4322373979725196</v>
       </c>
-      <c r="I68" s="33">
-        <v>30.912233960999998</v>
-      </c>
-      <c r="J68" s="33">
-        <v>691.33929337100005</v>
+      <c r="I68" s="55">
+        <v>30912.233960999998</v>
+      </c>
+      <c r="J68" s="55">
+        <v>691339.29337100009</v>
       </c>
       <c r="K68" s="33">
         <v>4.2799818056723096</v>
@@ -3954,11 +3995,11 @@
       <c r="H69" s="31">
         <v>4.5480306333848697</v>
       </c>
-      <c r="I69" s="33">
-        <v>7.0899124540000003</v>
-      </c>
-      <c r="J69" s="33">
-        <v>52.570925572</v>
+      <c r="I69" s="55">
+        <v>7089.9124540000003</v>
+      </c>
+      <c r="J69" s="55">
+        <v>52570.925572</v>
       </c>
       <c r="K69" s="33">
         <v>11.883695718303899</v>
@@ -3992,11 +4033,11 @@
       <c r="H70" s="31">
         <v>4.9209908040560801</v>
       </c>
-      <c r="I70" s="33">
-        <v>4.121446722</v>
-      </c>
-      <c r="J70" s="33">
-        <v>128.34195481</v>
+      <c r="I70" s="55">
+        <v>4121.4467219999997</v>
+      </c>
+      <c r="J70" s="55">
+        <v>128341.95481000001</v>
       </c>
       <c r="K70" s="33">
         <v>3.1113852387403398</v>
@@ -4030,11 +4071,11 @@
       <c r="H71" s="31">
         <v>5.1989548438019701</v>
       </c>
-      <c r="I71" s="33">
-        <v>19.477172942999999</v>
-      </c>
-      <c r="J71" s="33">
-        <v>274.71484407899999</v>
+      <c r="I71" s="55">
+        <v>19477.172942999998</v>
+      </c>
+      <c r="J71" s="55">
+        <v>274714.844079</v>
       </c>
       <c r="K71" s="33">
         <v>6.6205647386901996</v>
@@ -4068,11 +4109,11 @@
       <c r="H72" s="31">
         <v>5.6312325898104501</v>
       </c>
-      <c r="I72" s="33">
-        <v>6.2298336399999998</v>
-      </c>
-      <c r="J72" s="33">
-        <v>74.611897560000003</v>
+      <c r="I72" s="55">
+        <v>6229.8336399999998</v>
+      </c>
+      <c r="J72" s="55">
+        <v>74611.897559999998</v>
       </c>
       <c r="K72" s="33">
         <v>7.7062100817554002</v>
@@ -4106,11 +4147,11 @@
       <c r="H73" s="31">
         <v>5.2547346017113803</v>
       </c>
-      <c r="I73" s="33">
-        <v>56.842170785</v>
-      </c>
-      <c r="J73" s="33">
-        <v>468.16924409699999</v>
+      <c r="I73" s="55">
+        <v>56842.170785000002</v>
+      </c>
+      <c r="J73" s="55">
+        <v>468169.24409699999</v>
       </c>
       <c r="K73" s="33">
         <v>10.8268447454187</v>
@@ -4144,11 +4185,11 @@
       <c r="H74" s="31">
         <v>4.2598928868438604</v>
       </c>
-      <c r="I74" s="30">
-        <v>6.0967342389999999</v>
-      </c>
-      <c r="J74" s="30">
-        <v>237.33734469000001</v>
+      <c r="I74" s="54">
+        <v>6096.7342389999994</v>
+      </c>
+      <c r="J74" s="54">
+        <v>237337.34469</v>
       </c>
       <c r="K74" s="30">
         <v>2.50447031320466</v>
@@ -4182,11 +4223,11 @@
       <c r="H75" s="36">
         <v>11.1792867185625</v>
       </c>
-      <c r="I75" s="35">
-        <v>2057.3665964070001</v>
-      </c>
-      <c r="J75" s="35">
-        <v>3411.4205215110001</v>
+      <c r="I75" s="56">
+        <v>2057366.596407</v>
+      </c>
+      <c r="J75" s="56">
+        <v>3411420.5215110001</v>
       </c>
       <c r="K75" s="35">
         <v>37.620162424428997</v>
@@ -4220,11 +4261,11 @@
       <c r="H76" s="31">
         <v>14.196376779245799</v>
       </c>
-      <c r="I76" s="33">
-        <v>127.678892332</v>
-      </c>
-      <c r="J76" s="33">
-        <v>1392.958839661</v>
+      <c r="I76" s="55">
+        <v>127678.892332</v>
+      </c>
+      <c r="J76" s="55">
+        <v>1392958.8396610001</v>
       </c>
       <c r="K76" s="33">
         <v>8.3964043273252003</v>
@@ -4258,11 +4299,11 @@
       <c r="H77" s="31">
         <v>7.9893788354502702</v>
       </c>
-      <c r="I77" s="30">
-        <v>5612.5097954350003</v>
-      </c>
-      <c r="J77" s="30">
-        <v>10457.451211559001</v>
+      <c r="I77" s="54">
+        <v>5612509.7954350002</v>
+      </c>
+      <c r="J77" s="54">
+        <v>10457451.211559001</v>
       </c>
       <c r="K77" s="30">
         <v>34.925472395311402</v>
@@ -4296,11 +4337,11 @@
       <c r="H78" s="36">
         <v>5.1626501488484502</v>
       </c>
-      <c r="I78" s="35">
-        <v>25.576207729</v>
-      </c>
-      <c r="J78" s="35">
-        <v>452.873308904</v>
+      <c r="I78" s="56">
+        <v>25576.207729000002</v>
+      </c>
+      <c r="J78" s="56">
+        <v>452873.30890399998</v>
       </c>
       <c r="K78" s="35">
         <v>5.3456439686652502</v>
@@ -4334,11 +4375,11 @@
       <c r="H79" s="31">
         <v>5.5257465051486996</v>
       </c>
-      <c r="I79" s="33">
-        <v>777.69907060200001</v>
-      </c>
-      <c r="J79" s="33">
-        <v>2381.9166452449999</v>
+      <c r="I79" s="55">
+        <v>777699.07060199999</v>
+      </c>
+      <c r="J79" s="55">
+        <v>2381916.6452449998</v>
       </c>
       <c r="K79" s="33">
         <v>24.613723330386801</v>
@@ -4372,11 +4413,11 @@
       <c r="H80" s="31">
         <v>4.93593223119667</v>
       </c>
-      <c r="I80" s="33">
-        <v>69.059735614000004</v>
-      </c>
-      <c r="J80" s="33">
-        <v>792.362322726</v>
+      <c r="I80" s="55">
+        <v>69059.735614000005</v>
+      </c>
+      <c r="J80" s="55">
+        <v>792362.32272599998</v>
       </c>
       <c r="K80" s="33">
         <v>8.0169453458251692</v>
@@ -4410,11 +4451,11 @@
       <c r="H81" s="31">
         <v>13.424909806727401</v>
       </c>
-      <c r="I81" s="30">
-        <v>15625.656009116001</v>
-      </c>
-      <c r="J81" s="30">
-        <v>36306.870115749</v>
+      <c r="I81" s="54">
+        <v>15625656.009116001</v>
+      </c>
+      <c r="J81" s="54">
+        <v>36306870.115749002</v>
       </c>
       <c r="K81" s="30">
         <v>30.088380394872701</v>
@@ -4448,11 +4489,11 @@
       <c r="H82" s="36">
         <v>3.6840085559956899</v>
       </c>
-      <c r="I82" s="35">
-        <v>10.603673776999999</v>
-      </c>
-      <c r="J82" s="35">
-        <v>104.071608474</v>
+      <c r="I82" s="56">
+        <v>10603.673777</v>
+      </c>
+      <c r="J82" s="56">
+        <v>104071.60847400001</v>
       </c>
       <c r="K82" s="35">
         <v>9.2466951629478409</v>
@@ -4486,11 +4527,11 @@
       <c r="H83" s="31">
         <v>14.9190492071967</v>
       </c>
-      <c r="I83" s="33">
-        <v>9.2149790290000002</v>
-      </c>
-      <c r="J83" s="33">
-        <v>15.169391388999999</v>
+      <c r="I83" s="55">
+        <v>9214.9790290000001</v>
+      </c>
+      <c r="J83" s="55">
+        <v>15169.391388999999</v>
       </c>
       <c r="K83" s="33">
         <v>37.790514460843703</v>
@@ -4524,11 +4565,11 @@
       <c r="H84" s="31">
         <v>5.2785307874860798</v>
       </c>
-      <c r="I84" s="33">
-        <v>46.959208046999997</v>
-      </c>
-      <c r="J84" s="33">
-        <v>783.77286757100103</v>
+      <c r="I84" s="55">
+        <v>46959.208047</v>
+      </c>
+      <c r="J84" s="55">
+        <v>783772.86757100106</v>
       </c>
       <c r="K84" s="33">
         <v>5.6527500773418398</v>
@@ -4562,11 +4603,11 @@
       <c r="H85" s="31">
         <v>13.5891290259726</v>
       </c>
-      <c r="I85" s="33">
-        <v>1149.3770373540001</v>
-      </c>
-      <c r="J85" s="33">
-        <v>2320.5900718339999</v>
+      <c r="I85" s="55">
+        <v>1149377.0373540001</v>
+      </c>
+      <c r="J85" s="55">
+        <v>2320590.0718339998</v>
       </c>
       <c r="K85" s="33">
         <v>33.123571526387302</v>
@@ -4600,11 +4641,11 @@
       <c r="H86" s="31">
         <v>4.9592225994215902</v>
       </c>
-      <c r="I86" s="33">
-        <v>36.502179409999997</v>
-      </c>
-      <c r="J86" s="33">
-        <v>350.14140015999999</v>
+      <c r="I86" s="55">
+        <v>36502.179409999997</v>
+      </c>
+      <c r="J86" s="55">
+        <v>350141.40015999996</v>
       </c>
       <c r="K86" s="33">
         <v>9.4407825032541197</v>
@@ -4638,11 +4679,11 @@
       <c r="H87" s="31">
         <v>17.637112871837001</v>
       </c>
-      <c r="I87" s="33">
-        <v>4872.520787077</v>
-      </c>
-      <c r="J87" s="33">
-        <v>11724.573419765</v>
+      <c r="I87" s="55">
+        <v>4872520.7870770004</v>
+      </c>
+      <c r="J87" s="55">
+        <v>11724573.419764999</v>
       </c>
       <c r="K87" s="33">
         <v>29.357673857561998</v>
@@ -4676,11 +4717,11 @@
       <c r="H88" s="31">
         <v>9.8936953466511195</v>
       </c>
-      <c r="I88" s="30">
-        <v>10372.813158367</v>
-      </c>
-      <c r="J88" s="30">
-        <v>24635.703633431</v>
+      <c r="I88" s="54">
+        <v>10372813.158367001</v>
+      </c>
+      <c r="J88" s="54">
+        <v>24635703.633430999</v>
       </c>
       <c r="K88" s="30">
         <v>29.6293990975282</v>
@@ -4714,11 +4755,11 @@
       <c r="H89" s="36">
         <v>4.3519569524383002</v>
       </c>
-      <c r="I89" s="35">
-        <v>22.759288102999999</v>
-      </c>
-      <c r="J89" s="35">
-        <v>264.69418662800001</v>
+      <c r="I89" s="56">
+        <v>22759.288102999999</v>
+      </c>
+      <c r="J89" s="56">
+        <v>264694.186628</v>
       </c>
       <c r="K89" s="35">
         <v>7.9175553971988801</v>
@@ -4752,11 +4793,11 @@
       <c r="H90" s="31">
         <v>9.5997470722639804</v>
       </c>
-      <c r="I90" s="33">
-        <v>50.525908964999999</v>
-      </c>
-      <c r="J90" s="33">
-        <v>65.336473649000098</v>
+      <c r="I90" s="55">
+        <v>50525.908965000002</v>
+      </c>
+      <c r="J90" s="55">
+        <v>65336.473649000101</v>
       </c>
       <c r="K90" s="33">
         <v>43.608553376059099</v>
@@ -4790,11 +4831,11 @@
       <c r="H91" s="31">
         <v>6.5651570956740102</v>
       </c>
-      <c r="I91" s="33">
-        <v>0.599352573</v>
-      </c>
-      <c r="J91" s="33">
-        <v>8.3969016950000093</v>
+      <c r="I91" s="55">
+        <v>599.35257300000001</v>
+      </c>
+      <c r="J91" s="55">
+        <v>8396.9016950000096</v>
       </c>
       <c r="K91" s="33">
         <v>6.6622458097023598</v>
@@ -4828,11 +4869,11 @@
       <c r="H92" s="31">
         <v>10.9910887996841</v>
       </c>
-      <c r="I92" s="33">
-        <v>623.44689672699997</v>
-      </c>
-      <c r="J92" s="33">
-        <v>1045.185567534</v>
+      <c r="I92" s="55">
+        <v>623446.89672700001</v>
+      </c>
+      <c r="J92" s="55">
+        <v>1045185.567534</v>
       </c>
       <c r="K92" s="33">
         <v>37.3627452467857</v>
@@ -4866,11 +4907,11 @@
       <c r="H93" s="31">
         <v>5.2531530195048104</v>
       </c>
-      <c r="I93" s="33">
-        <v>21.585640893000001</v>
-      </c>
-      <c r="J93" s="33">
-        <v>113.919479837</v>
+      <c r="I93" s="55">
+        <v>21585.640893</v>
+      </c>
+      <c r="J93" s="55">
+        <v>113919.47983699999</v>
       </c>
       <c r="K93" s="33">
         <v>15.929760275266901</v>
@@ -4904,11 +4945,11 @@
       <c r="H94" s="31">
         <v>1.7791931818532301</v>
       </c>
-      <c r="I94" s="30">
-        <v>144.941199278</v>
-      </c>
-      <c r="J94" s="30">
-        <v>299.50987801799999</v>
+      <c r="I94" s="54">
+        <v>144941.19927799999</v>
+      </c>
+      <c r="J94" s="54">
+        <v>299509.87801799999</v>
       </c>
       <c r="K94" s="30">
         <v>32.611283149499599</v>
@@ -4942,11 +4983,11 @@
       <c r="H95" s="36">
         <v>5.1062955454657404</v>
       </c>
-      <c r="I95" s="35">
-        <v>40.137019555999998</v>
-      </c>
-      <c r="J95" s="35">
-        <v>518.20157905500002</v>
+      <c r="I95" s="56">
+        <v>40137.019555999999</v>
+      </c>
+      <c r="J95" s="56">
+        <v>518201.57905500004</v>
       </c>
       <c r="K95" s="35">
         <v>7.18865212898596</v>
@@ -4980,11 +5021,11 @@
       <c r="H96" s="31">
         <v>12.748329243648501</v>
       </c>
-      <c r="I96" s="33">
-        <v>184.18480873600001</v>
-      </c>
-      <c r="J96" s="33">
-        <v>314.595203975</v>
+      <c r="I96" s="55">
+        <v>184184.80873600001</v>
+      </c>
+      <c r="J96" s="55">
+        <v>314595.20397500001</v>
       </c>
       <c r="K96" s="33">
         <v>36.927062841774102</v>
@@ -5018,11 +5059,11 @@
       <c r="H97" s="39">
         <v>8.7980268121352907</v>
       </c>
-      <c r="I97" s="38">
-        <v>11.472097042</v>
-      </c>
-      <c r="J97" s="38">
-        <v>60.096944786000002</v>
+      <c r="I97" s="57">
+        <v>11472.097041999999</v>
+      </c>
+      <c r="J97" s="57">
+        <v>60096.944786</v>
       </c>
       <c r="K97" s="38">
         <v>16.029412646840498</v>
@@ -5040,8 +5081,8 @@
       <c r="F98" s="30"/>
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
       <c r="K98" s="30"/>
       <c r="L98" s="30"/>
     </row>
